--- a/biology/Zoologie/Fourmilier/Fourmilier.xlsx
+++ b/biology/Zoologie/Fourmilier/Fourmilier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vermilingua
 Les fourmiliers sont des mammifères xénarthres représentés par les quatre espèces du sous-ordre des Vermilingua et connus pour leur myrmécophagie et leur termitophagie. Les fourmiliers forment avec les paresseux l'ordre Pilosa.
@@ -513,7 +525,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus grand représentant du groupe est le fourmilier géant ou grand tamanoir (Myrmecophaga tridactyla), un animal mesurant 1,2 m en longueur, sans la queue, et 60 cm de haut. Il possède un long et fin museau et une grande queue touffue. Sa couleur prédominante est le gris, avec une large bande noire, bordée de blanc, commençant au buste, et passant obliquement au-dessus de l'épaule, diminuant graduellement en largeur au fur et à mesure qu'elle s'approche des reins, où elle se termine en un point. Les grands fourmiliers sont parfois  confondus avec des ours à cause de leur fourrure et de leurs griffes. En espagnol, on parle d’oso hormiguero, littéralement, ours fourmilier.
 Il est réparti de manière extensive en Amérique du Sud et centrale, fréquentant les basses savanes humides, le long des berges, et dans la profondeur des forêts humides, mais nulle part abondant.
@@ -547,9 +561,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fourmilier mange surtout des fourmis, mais il aime aussi des termites et d'autres insectes comme les coccinelles. Il est estimé qu'un fourmilier mange environ 30 000 fourmis par jour[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fourmilier mange surtout des fourmis, mais il aime aussi des termites et d'autres insectes comme les coccinelles. Il est estimé qu'un fourmilier mange environ 30 000 fourmis par jour. 
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ordre Pilosa
 Sous-ordre Folivora (paresseux)
